--- a/REGULAR/OJT/NEW DONE/BAYBAY, MA. PAZ.xlsx
+++ b/REGULAR/OJT/NEW DONE/BAYBAY, MA. PAZ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,9 +24,9 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="214">
   <si>
     <t>PERIOD</t>
   </si>
@@ -670,19 +675,28 @@
   </si>
   <si>
     <t>5/20,23,24</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/21-23,28,29/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1068,18 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1090,38 +1116,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1145,7 +1144,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1162,7 +1161,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1177,7 +1176,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1219,7 +1218,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1279,7 +1278,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1292,7 +1291,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1307,7 +1306,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1325,7 +1324,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1342,7 +1341,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1361,7 +1360,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1378,7 +1377,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1394,7 +1393,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1411,7 +1410,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1430,7 +1429,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1447,8 +1446,23 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1505,7 +1519,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1550,7 +1564,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1607,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1671,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1731,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1797,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1860,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1958,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2017,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2082,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2125,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2200,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2386,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2452,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2510,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2576,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2632,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2707,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2750,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2816,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2872,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2970,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3033,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3082,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3085,25 +3099,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K351" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K368" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="0"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="19"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="18"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="17">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="13">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3115,13 +3129,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DAYS"/>
     <tableColumn id="2" name="HOURS"/>
     <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="6">
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3130,14 +3144,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="3"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="2">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="1">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3434,14 +3448,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3451,7 +3465,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3459,91 +3473,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K351"/>
+  <dimension ref="A2:K368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A333" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A338" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="B342" sqref="B342"/>
+      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3551,7 +3565,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3564,24 +3578,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3624,8 +3638,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.26399999999998</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>136.76399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3634,13 +3648,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>107.458</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>114.958</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3662,7 +3676,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36976</v>
       </c>
@@ -3682,7 +3696,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36982</v>
       </c>
@@ -3702,7 +3716,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37012</v>
@@ -3723,7 +3737,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A18" si="0">EDATE(A13,1)</f>
         <v>37043</v>
@@ -3744,7 +3758,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3765,7 +3779,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -3786,7 +3800,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -3813,7 +3827,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -3840,7 +3854,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>46</v>
@@ -3860,7 +3874,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>37196</v>
@@ -3887,7 +3901,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>44</v>
@@ -3909,7 +3923,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>47</v>
@@ -3929,7 +3943,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A20,1)</f>
         <v>37226</v>
@@ -3956,7 +3970,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40" t="s">
         <v>48</v>
@@ -3976,7 +3990,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>49</v>
       </c>
@@ -3994,7 +4008,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>37257</v>
       </c>
@@ -4020,7 +4034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -4042,7 +4056,7 @@
         <v>10959</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>52</v>
@@ -4062,7 +4076,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A26,1)</f>
         <v>37288</v>
@@ -4087,7 +4101,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A43" si="1">EDATE(A29,1)</f>
         <v>37316</v>
@@ -4114,7 +4128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>54</v>
@@ -4131,7 +4145,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>37347</v>
@@ -4156,7 +4170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -4183,7 +4197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>56</v>
@@ -4205,7 +4219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>37408</v>
@@ -4232,7 +4246,7 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>62</v>
@@ -4251,7 +4265,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>37438</v>
@@ -4280,7 +4294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -4309,7 +4323,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>68</v>
@@ -4328,7 +4342,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>37500</v>
@@ -4355,7 +4369,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>70</v>
@@ -4379,7 +4393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>37530</v>
@@ -4408,7 +4422,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -4429,7 +4443,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>37591</v>
@@ -4450,7 +4464,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>72</v>
       </c>
@@ -4468,7 +4482,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37622</v>
       </c>
@@ -4488,7 +4502,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A46,1)</f>
         <v>37653</v>
@@ -4509,7 +4523,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" ref="A48:A58" si="2">EDATE(A47,1)</f>
         <v>37681</v>
@@ -4530,7 +4544,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>37712</v>
@@ -4551,7 +4565,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>37742</v>
@@ -4572,7 +4586,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>37773</v>
@@ -4597,7 +4611,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>37803</v>
@@ -4622,7 +4636,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>37834</v>
@@ -4647,7 +4661,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>37865</v>
@@ -4674,7 +4688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>76</v>
@@ -4694,7 +4708,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>37895</v>
@@ -4719,7 +4733,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A56,1)</f>
         <v>37926</v>
@@ -4740,7 +4754,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>37956</v>
@@ -4761,7 +4775,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>77</v>
       </c>
@@ -4779,7 +4793,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37987</v>
       </c>
@@ -4799,7 +4813,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A60,1)</f>
         <v>38018</v>
@@ -4820,7 +4834,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" ref="A62:A69" si="3">EDATE(A61,1)</f>
         <v>38047</v>
@@ -4841,7 +4855,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>38078</v>
@@ -4862,7 +4876,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>38108</v>
@@ -4883,7 +4897,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>38139</v>
@@ -4904,7 +4918,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>38169</v>
@@ -4925,7 +4939,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>38200</v>
@@ -4946,7 +4960,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>38231</v>
@@ -4967,7 +4981,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>38261</v>
@@ -4994,7 +5008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -5013,7 +5027,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -5032,7 +5046,7 @@
         <v>46661</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A69,1)</f>
         <v>38292</v>
@@ -5059,7 +5073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A72,1)</f>
         <v>38322</v>
@@ -5086,7 +5100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>83</v>
@@ -5108,7 +5122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>78</v>
       </c>
@@ -5126,7 +5140,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>38353</v>
       </c>
@@ -5146,7 +5160,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A76,1)</f>
         <v>38384</v>
@@ -5167,7 +5181,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" ref="A78:A91" si="4">EDATE(A77,1)</f>
         <v>38412</v>
@@ -5188,7 +5202,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>38443</v>
@@ -5215,7 +5229,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>86</v>
@@ -5235,7 +5249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>38473</v>
@@ -5262,7 +5276,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>69</v>
@@ -5284,7 +5298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>38504</v>
@@ -5305,7 +5319,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>38534</v>
@@ -5332,7 +5346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>45</v>
@@ -5354,7 +5368,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>38565</v>
@@ -5381,7 +5395,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>62</v>
@@ -5403,7 +5417,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>38596</v>
@@ -5430,7 +5444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>69</v>
@@ -5452,7 +5466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A88,1)</f>
         <v>38626</v>
@@ -5479,7 +5493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="4"/>
         <v>38657</v>
@@ -5506,7 +5520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>62</v>
@@ -5526,7 +5540,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>38687</v>
@@ -5547,7 +5561,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>79</v>
       </c>
@@ -5565,7 +5579,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38718</v>
       </c>
@@ -5591,7 +5605,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A95,1)</f>
         <v>38749</v>
@@ -5618,7 +5632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" ref="A97:A107" si="5">EDATE(A96,1)</f>
         <v>38777</v>
@@ -5639,7 +5653,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>38808</v>
@@ -5666,7 +5680,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A98,1)</f>
         <v>38838</v>
@@ -5693,7 +5707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>38869</v>
@@ -5714,7 +5728,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>38899</v>
@@ -5741,7 +5755,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>69</v>
@@ -5763,7 +5777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>38930</v>
@@ -5790,7 +5804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>101</v>
@@ -5812,7 +5826,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>38961</v>
@@ -5833,7 +5847,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="5"/>
         <v>38991</v>
@@ -5854,7 +5868,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="5"/>
         <v>39022</v>
@@ -5881,7 +5895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>94</v>
@@ -5900,7 +5914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>39052</v>
@@ -5925,7 +5939,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>80</v>
       </c>
@@ -5943,7 +5957,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>39083</v>
       </c>
@@ -5969,7 +5983,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>69</v>
@@ -5988,7 +6002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>39114</v>
@@ -6009,7 +6023,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A113,1)</f>
         <v>39142</v>
@@ -6036,7 +6050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>86</v>
@@ -6053,7 +6067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>62</v>
@@ -6072,7 +6086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>69</v>
@@ -6091,7 +6105,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A114,1)</f>
         <v>39173</v>
@@ -6112,7 +6126,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A122" si="6">EDATE(A118,1)</f>
         <v>39203</v>
@@ -6139,7 +6153,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>39234</v>
@@ -6166,7 +6180,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="6"/>
         <v>39264</v>
@@ -6193,7 +6207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="6"/>
         <v>39295</v>
@@ -6220,7 +6234,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>62</v>
@@ -6242,7 +6256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>39326</v>
@@ -6265,11 +6279,11 @@
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="63" t="s">
+      <c r="K124" s="51" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>45</v>
@@ -6288,7 +6302,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>64</v>
@@ -6307,7 +6321,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>66</v>
@@ -6326,7 +6340,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A124,1)</f>
         <v>39356</v>
@@ -6351,7 +6365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>61</v>
@@ -6373,7 +6387,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A128,1)</f>
         <v>39387</v>
@@ -6400,7 +6414,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>121</v>
@@ -6417,11 +6431,11 @@
       <c r="J131" s="11">
         <v>0.25</v>
       </c>
-      <c r="K131" s="64" t="s">
+      <c r="K131" s="52" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>122</v>
@@ -6436,11 +6450,11 @@
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="65" t="s">
+      <c r="K132" s="53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>101</v>
@@ -6459,7 +6473,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A130,1)</f>
         <v>39417</v>
@@ -6480,7 +6494,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>127</v>
       </c>
@@ -6498,7 +6512,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39448</v>
       </c>
@@ -6518,7 +6532,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A136,1)</f>
         <v>39479</v>
@@ -6539,7 +6553,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" ref="A138:A148" si="7">EDATE(A137,1)</f>
         <v>39508</v>
@@ -6564,7 +6578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>39539</v>
@@ -6591,7 +6605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>39569</v>
@@ -6612,7 +6626,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="7"/>
         <v>39600</v>
@@ -6633,7 +6647,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A141,1)</f>
         <v>39630</v>
@@ -6660,7 +6674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>62</v>
@@ -6682,7 +6696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>39661</v>
@@ -6703,7 +6717,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="7"/>
         <v>39692</v>
@@ -6730,7 +6744,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="7"/>
         <v>39722</v>
@@ -6751,7 +6765,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>39753</v>
@@ -6772,7 +6786,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>39783</v>
@@ -6793,7 +6807,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>134</v>
       </c>
@@ -6811,7 +6825,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39814</v>
       </c>
@@ -6831,7 +6845,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>39845</v>
@@ -6858,7 +6872,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" ref="A152:A160" si="8">EDATE(A151,1)</f>
         <v>39873</v>
@@ -6885,7 +6899,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="8"/>
         <v>39904</v>
@@ -6912,7 +6926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -6939,7 +6953,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="8"/>
         <v>39965</v>
@@ -6960,7 +6974,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="8"/>
         <v>39995</v>
@@ -6981,7 +6995,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -7002,7 +7016,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="8"/>
         <v>40057</v>
@@ -7023,7 +7037,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="8"/>
         <v>40087</v>
@@ -7044,7 +7058,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="8"/>
         <v>40118</v>
@@ -7065,7 +7079,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A160,1)</f>
         <v>40148</v>
@@ -7092,7 +7106,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>62</v>
@@ -7114,7 +7128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
         <v>140</v>
       </c>
@@ -7132,7 +7146,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>40179</v>
       </c>
@@ -7152,7 +7166,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A164,1)</f>
         <v>40210</v>
@@ -7173,7 +7187,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" ref="A166:A175" si="9">EDATE(A165,1)</f>
         <v>40238</v>
@@ -7194,7 +7208,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>40269</v>
@@ -7215,7 +7229,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="9"/>
         <v>40299</v>
@@ -7236,7 +7250,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="9"/>
         <v>40330</v>
@@ -7257,7 +7271,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="9"/>
         <v>40360</v>
@@ -7278,7 +7292,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="9"/>
         <v>40391</v>
@@ -7299,7 +7313,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="9"/>
         <v>40422</v>
@@ -7320,7 +7334,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f>EDATE(A172,1)</f>
         <v>40452</v>
@@ -7341,7 +7355,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="9"/>
         <v>40483</v>
@@ -7362,7 +7376,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="9"/>
         <v>40513</v>
@@ -7387,7 +7401,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>94</v>
@@ -7407,7 +7421,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>142</v>
       </c>
@@ -7425,7 +7439,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40544</v>
       </c>
@@ -7445,7 +7459,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A178,1)</f>
         <v>40575</v>
@@ -7466,7 +7480,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A189" si="10">EDATE(A179,1)</f>
         <v>40603</v>
@@ -7487,7 +7501,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="10"/>
         <v>40634</v>
@@ -7514,7 +7528,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="10"/>
         <v>40664</v>
@@ -7535,7 +7549,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="10"/>
         <v>40695</v>
@@ -7556,7 +7570,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="10"/>
         <v>40725</v>
@@ -7583,7 +7597,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="10"/>
         <v>40756</v>
@@ -7604,7 +7618,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="10"/>
         <v>40787</v>
@@ -7625,7 +7639,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A186,1)</f>
         <v>40817</v>
@@ -7646,7 +7660,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>40848</v>
@@ -7667,7 +7681,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>40878</v>
@@ -7694,7 +7708,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>147</v>
@@ -7714,7 +7728,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
         <v>148</v>
       </c>
@@ -7732,7 +7746,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40909</v>
       </c>
@@ -7752,7 +7766,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>40940</v>
@@ -7773,7 +7787,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" ref="A194:A203" si="11">EDATE(A193,1)</f>
         <v>40969</v>
@@ -7794,7 +7808,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="11"/>
         <v>41000</v>
@@ -7815,7 +7829,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>41030</v>
@@ -7836,7 +7850,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="11"/>
         <v>41061</v>
@@ -7857,7 +7871,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="11"/>
         <v>41091</v>
@@ -7878,7 +7892,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="11"/>
         <v>41122</v>
@@ -7899,7 +7913,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="11"/>
         <v>41153</v>
@@ -7926,7 +7940,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="11"/>
         <v>41183</v>
@@ -7947,7 +7961,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>41214</v>
@@ -7974,7 +7988,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="11"/>
         <v>41244</v>
@@ -7995,7 +8009,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
         <v>151</v>
       </c>
@@ -8013,7 +8027,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>41275</v>
       </c>
@@ -8039,7 +8053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>41306</v>
@@ -8060,7 +8074,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A215" si="12">EDATE(A206,1)</f>
         <v>41334</v>
@@ -8087,7 +8101,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="12"/>
         <v>41365</v>
@@ -8108,7 +8122,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="12"/>
         <v>41395</v>
@@ -8135,7 +8149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="12"/>
         <v>41426</v>
@@ -8156,7 +8170,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="12"/>
         <v>41456</v>
@@ -8177,7 +8191,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="12"/>
         <v>41487</v>
@@ -8198,7 +8212,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="12"/>
         <v>41518</v>
@@ -8219,7 +8233,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="12"/>
         <v>41548</v>
@@ -8240,7 +8254,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="12"/>
         <v>41579</v>
@@ -8261,7 +8275,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f>EDATE(A215,1)</f>
         <v>41609</v>
@@ -8282,7 +8296,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>154</v>
       </c>
@@ -8300,7 +8314,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41640</v>
       </c>
@@ -8320,7 +8334,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A218,1)</f>
         <v>41671</v>
@@ -8341,7 +8355,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A229" si="13">EDATE(A219,1)</f>
         <v>41699</v>
@@ -8362,7 +8376,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="13"/>
         <v>41730</v>
@@ -8383,7 +8397,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="13"/>
         <v>41760</v>
@@ -8404,7 +8418,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="13"/>
         <v>41791</v>
@@ -8425,7 +8439,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="13"/>
         <v>41821</v>
@@ -8446,7 +8460,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="13"/>
         <v>41852</v>
@@ -8467,7 +8481,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="13"/>
         <v>41883</v>
@@ -8488,7 +8502,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="13"/>
         <v>41913</v>
@@ -8509,7 +8523,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="13"/>
         <v>41944</v>
@@ -8536,7 +8550,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="13"/>
         <v>41974</v>
@@ -8561,7 +8575,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="48" t="s">
         <v>156</v>
       </c>
@@ -8579,7 +8593,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42005</v>
       </c>
@@ -8605,7 +8619,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A231,1)</f>
         <v>42036</v>
@@ -8626,7 +8640,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" ref="A233:A242" si="14">EDATE(A232,1)</f>
         <v>42064</v>
@@ -8651,7 +8665,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -8673,7 +8687,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>42095</v>
@@ -8694,7 +8708,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="14"/>
         <v>42125</v>
@@ -8715,7 +8729,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="14"/>
         <v>42156</v>
@@ -8736,7 +8750,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="14"/>
         <v>42186</v>
@@ -8757,7 +8771,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="14"/>
         <v>42217</v>
@@ -8778,7 +8792,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="14"/>
         <v>42248</v>
@@ -8799,7 +8813,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="14"/>
         <v>42278</v>
@@ -8820,7 +8834,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="14"/>
         <v>42309</v>
@@ -8841,7 +8855,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42339</v>
@@ -8868,7 +8882,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>159</v>
       </c>
@@ -8886,7 +8900,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42370</v>
       </c>
@@ -8906,7 +8920,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42401</v>
@@ -8933,7 +8947,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A258" si="15">EDATE(A246,1)</f>
         <v>42430</v>
@@ -8954,7 +8968,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="15"/>
         <v>42461</v>
@@ -8979,7 +8993,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="15"/>
         <v>42491</v>
@@ -9006,7 +9020,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="15"/>
         <v>42522</v>
@@ -9027,7 +9041,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="15"/>
         <v>42552</v>
@@ -9048,7 +9062,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="15"/>
         <v>42583</v>
@@ -9075,7 +9089,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>45</v>
@@ -9097,7 +9111,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>42614</v>
@@ -9124,7 +9138,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>69</v>
@@ -9146,7 +9160,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>42644</v>
@@ -9167,7 +9181,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="15"/>
         <v>42675</v>
@@ -9188,7 +9202,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="15"/>
         <v>42705</v>
@@ -9215,7 +9229,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>62</v>
@@ -9235,7 +9249,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="48" t="s">
         <v>167</v>
       </c>
@@ -9253,7 +9267,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42736</v>
       </c>
@@ -9279,7 +9293,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>170</v>
@@ -9298,7 +9312,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>42767</v>
@@ -9325,7 +9339,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>62</v>
@@ -9347,7 +9361,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A263,1)</f>
         <v>42795</v>
@@ -9368,7 +9382,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A265,1)</f>
         <v>42826</v>
@@ -9395,7 +9409,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>86</v>
@@ -9415,7 +9429,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>42856</v>
@@ -9442,7 +9456,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" ref="A269:A276" si="16">EDATE(A268,1)</f>
         <v>42887</v>
@@ -9452,18 +9466,18 @@
         <v>1.25</v>
       </c>
       <c r="D269" s="43"/>
-      <c r="E269" s="66"/>
+      <c r="E269" s="54"/>
       <c r="F269" s="15"/>
       <c r="G269" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H269" s="43"/>
-      <c r="I269" s="66"/>
+      <c r="I269" s="54"/>
       <c r="J269" s="12"/>
       <c r="K269" s="15"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="16"/>
         <v>42917</v>
@@ -9490,7 +9504,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="16"/>
         <v>42948</v>
@@ -9511,7 +9525,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="16"/>
         <v>42979</v>
@@ -9538,7 +9552,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>62</v>
@@ -9560,7 +9574,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>43009</v>
@@ -9587,7 +9601,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="16"/>
         <v>43040</v>
@@ -9614,7 +9628,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="16"/>
         <v>43070</v>
@@ -9639,7 +9653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="48" t="s">
         <v>180</v>
       </c>
@@ -9657,7 +9671,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>43101</v>
       </c>
@@ -9677,7 +9691,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A278,1)</f>
         <v>43132</v>
@@ -9698,7 +9712,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" ref="A280:A291" si="17">EDATE(A279,1)</f>
         <v>43160</v>
@@ -9719,7 +9733,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="17"/>
         <v>43191</v>
@@ -9744,7 +9758,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>50</v>
@@ -9764,7 +9778,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>43221</v>
@@ -9785,7 +9799,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="17"/>
         <v>43252</v>
@@ -9806,7 +9820,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="17"/>
         <v>43282</v>
@@ -9827,7 +9841,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="17"/>
         <v>43313</v>
@@ -9854,7 +9868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="17"/>
         <v>43344</v>
@@ -9877,11 +9891,11 @@
       </c>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
-      <c r="K287" s="63" t="s">
+      <c r="K287" s="51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>56</v>
@@ -9899,11 +9913,11 @@
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="63" t="s">
+      <c r="K288" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>43374</v>
@@ -9924,7 +9938,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="17"/>
         <v>43405</v>
@@ -9945,7 +9959,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="17"/>
         <v>43435</v>
@@ -9972,7 +9986,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="48" t="s">
         <v>187</v>
       </c>
@@ -9990,7 +10004,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43466</v>
       </c>
@@ -10016,7 +10030,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A293,1)</f>
         <v>43497</v>
@@ -10043,7 +10057,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" ref="A295:A304" si="18">EDATE(A294,1)</f>
         <v>43525</v>
@@ -10064,7 +10078,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="18"/>
         <v>43556</v>
@@ -10085,7 +10099,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="18"/>
         <v>43586</v>
@@ -10112,7 +10126,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="18"/>
         <v>43617</v>
@@ -10139,7 +10153,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="18"/>
         <v>43647</v>
@@ -10166,7 +10180,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>57</v>
@@ -10186,7 +10200,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>43678</v>
@@ -10207,7 +10221,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="18"/>
         <v>43709</v>
@@ -10219,7 +10233,7 @@
         <v>1.25</v>
       </c>
       <c r="D302" s="43"/>
-      <c r="E302" s="66"/>
+      <c r="E302" s="54"/>
       <c r="F302" s="15"/>
       <c r="G302" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -10228,13 +10242,13 @@
       <c r="H302" s="43">
         <v>3</v>
       </c>
-      <c r="I302" s="66"/>
+      <c r="I302" s="54"/>
       <c r="J302" s="12"/>
       <c r="K302" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="18"/>
         <v>43739</v>
@@ -10255,7 +10269,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="18"/>
         <v>43770</v>
@@ -10282,7 +10296,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>62</v>
@@ -10304,7 +10318,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>56</v>
@@ -10326,7 +10340,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>43800</v>
@@ -10347,7 +10361,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="48" t="s">
         <v>199</v>
       </c>
@@ -10365,7 +10379,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43831</v>
       </c>
@@ -10391,7 +10405,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A309,1)</f>
         <v>43862</v>
@@ -10416,7 +10430,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>57</v>
@@ -10436,7 +10450,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>62</v>
@@ -10458,7 +10472,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>43891</v>
@@ -10479,7 +10493,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" ref="A314:A322" si="19">EDATE(A313,1)</f>
         <v>43922</v>
@@ -10500,7 +10514,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="19"/>
         <v>43952</v>
@@ -10521,7 +10535,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="19"/>
         <v>43983</v>
@@ -10542,7 +10556,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="19"/>
         <v>44013</v>
@@ -10563,7 +10577,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="19"/>
         <v>44044</v>
@@ -10584,7 +10598,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="19"/>
         <v>44075</v>
@@ -10605,7 +10619,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="19"/>
         <v>44105</v>
@@ -10626,7 +10640,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="19"/>
         <v>44136</v>
@@ -10647,7 +10661,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="19"/>
         <v>44166</v>
@@ -10672,7 +10686,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
         <v>205</v>
       </c>
@@ -10690,7 +10704,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="41">
         <v>44197</v>
       </c>
@@ -10699,18 +10713,18 @@
         <v>1.25</v>
       </c>
       <c r="D324" s="43"/>
-      <c r="E324" s="66"/>
+      <c r="E324" s="54"/>
       <c r="F324" s="15"/>
       <c r="G324" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H324" s="43"/>
-      <c r="I324" s="66"/>
+      <c r="I324" s="54"/>
       <c r="J324" s="12"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A324,1)</f>
         <v>44228</v>
@@ -10731,7 +10745,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" ref="A326:A335" si="20">EDATE(A325,1)</f>
         <v>44256</v>
@@ -10752,7 +10766,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="20"/>
         <v>44287</v>
@@ -10773,7 +10787,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="20"/>
         <v>44317</v>
@@ -10794,7 +10808,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="20"/>
         <v>44348</v>
@@ -10815,7 +10829,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="20"/>
         <v>44378</v>
@@ -10836,7 +10850,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="20"/>
         <v>44409</v>
@@ -10857,7 +10871,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="20"/>
         <v>44440</v>
@@ -10878,7 +10892,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="20"/>
         <v>44470</v>
@@ -10899,7 +10913,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="20"/>
         <v>44501</v>
@@ -10920,7 +10934,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="20"/>
         <v>44531</v>
@@ -10945,7 +10959,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>206</v>
       </c>
@@ -10963,7 +10977,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44562</v>
       </c>
@@ -10983,7 +10997,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="41">
         <f>EDATE(A337,1)</f>
         <v>44593</v>
@@ -10993,18 +11007,18 @@
         <v>1.25</v>
       </c>
       <c r="D338" s="43"/>
-      <c r="E338" s="66"/>
+      <c r="E338" s="54"/>
       <c r="F338" s="15"/>
       <c r="G338" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H338" s="43"/>
-      <c r="I338" s="66"/>
+      <c r="I338" s="54"/>
       <c r="J338" s="12"/>
       <c r="K338" s="15"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41">
         <f t="shared" ref="A339:A347" si="21">EDATE(A338,1)</f>
         <v>44621</v>
@@ -11031,7 +11045,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="41"/>
       <c r="B340" s="20" t="s">
         <v>69</v>
@@ -11048,7 +11062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="41"/>
       <c r="B341" s="20" t="s">
         <v>57</v>
@@ -11065,7 +11079,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="41">
         <f>EDATE(A339,1)</f>
         <v>44652</v>
@@ -11086,7 +11100,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="41">
         <f t="shared" si="21"/>
         <v>44682</v>
@@ -11107,7 +11121,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="41">
         <f t="shared" si="21"/>
         <v>44713</v>
@@ -11134,7 +11148,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41"/>
       <c r="B345" s="20" t="s">
         <v>62</v>
@@ -11156,7 +11170,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="41">
         <f>EDATE(A344,1)</f>
         <v>44743</v>
@@ -11177,7 +11191,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="41">
         <f t="shared" si="21"/>
         <v>44774</v>
@@ -11198,7 +11212,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="41">
         <f>EDATE(A347,1)</f>
         <v>44805</v>
@@ -11212,58 +11226,370 @@
       <c r="D348" s="43">
         <v>3</v>
       </c>
-      <c r="E348" s="66"/>
+      <c r="E348" s="54"/>
       <c r="F348" s="15"/>
       <c r="G348" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H348" s="43"/>
-      <c r="I348" s="66"/>
+      <c r="I348" s="54"/>
       <c r="J348" s="12"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11">
-      <c r="A349" s="40"/>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="40">
+        <v>44835</v>
+      </c>
       <c r="B349" s="20"/>
-      <c r="C349" s="13"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
-      <c r="A350" s="40"/>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="40">
+        <v>44866</v>
+      </c>
       <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="39"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13"/>
+      <c r="G350" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
-      <c r="A351" s="41"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="42"/>
-      <c r="D351" s="43"/>
-      <c r="E351" s="66"/>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D351" s="43">
+        <v>5</v>
+      </c>
+      <c r="E351" s="54"/>
       <c r="F351" s="15"/>
-      <c r="G351" s="42"/>
+      <c r="G351" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H351" s="43"/>
-      <c r="I351" s="66"/>
+      <c r="I351" s="54"/>
       <c r="J351" s="12"/>
-      <c r="K351" s="15"/>
+      <c r="K351" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B352" s="15"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="43"/>
+      <c r="E352" s="54"/>
+      <c r="F352" s="15"/>
+      <c r="G352" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="43"/>
+      <c r="I352" s="54"/>
+      <c r="J352" s="12"/>
+      <c r="K352" s="15"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="40"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="40"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="40"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="40"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="40"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="40"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="40"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="40"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="40"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="40"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="40"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="40"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="39"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11306,7 +11632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11314,34 +11640,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11370,7 +11696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -11400,17 +11726,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11424,14 +11750,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11458,7 +11784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11484,7 +11810,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11510,7 +11836,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11536,7 +11862,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11562,7 +11888,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11588,7 +11914,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11614,7 +11940,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11640,7 +11966,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11660,7 +11986,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11680,7 +12006,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11700,7 +12026,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11721,7 +12047,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11742,7 +12068,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11763,7 +12089,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11784,7 +12110,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11805,7 +12131,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11826,7 +12152,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11847,7 +12173,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11868,7 +12194,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11889,7 +12215,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11910,7 +12236,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11931,7 +12257,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11952,7 +12278,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11973,7 +12299,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11994,7 +12320,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12015,7 +12341,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12036,7 +12362,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12057,7 +12383,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12078,7 +12404,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12099,7 +12425,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12120,7 +12446,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12129,7 +12455,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12138,7 +12464,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12147,7 +12473,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12156,7 +12482,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12165,7 +12491,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12174,7 +12500,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12183,7 +12509,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12192,7 +12518,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12201,7 +12527,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12210,7 +12536,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12219,7 +12545,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12228,7 +12554,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12237,7 +12563,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12246,7 +12572,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12255,7 +12581,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12264,7 +12590,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12273,7 +12599,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12282,7 +12608,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12291,7 +12617,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12300,7 +12626,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12309,7 +12635,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12318,7 +12644,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12327,7 +12653,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12336,7 +12662,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12345,7 +12671,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12354,7 +12680,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12363,7 +12689,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12372,7 +12698,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12381,7 +12707,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/BAYBAY, MA. PAZ.xlsx
+++ b/REGULAR/OJT/NEW DONE/BAYBAY, MA. PAZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="216">
   <si>
     <t>PERIOD</t>
   </si>
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t>12/21-23,28,29/2022</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/2-5/2023</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1570,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1613,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1677,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1737,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1803,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1866,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1964,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2023,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2088,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2131,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2206,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2392,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2458,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2516,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2582,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2638,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2713,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2756,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2822,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2878,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2970,7 +2976,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3033,7 +3039,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3488,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1890" topLeftCell="A338" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
+      <selection pane="bottomLeft" activeCell="B358" sqref="B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,7 +3645,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>136.76399999999998</v>
+        <v>138.01399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3649,7 +3655,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>114.958</v>
+        <v>112.208</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11386,13 +11392,15 @@
         <v>45017</v>
       </c>
       <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G356" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
@@ -11400,8 +11408,12 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="40"/>
-      <c r="B357" s="20"/>
+      <c r="A357" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
@@ -11410,10 +11422,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H357" s="39"/>
+      <c r="H357" s="39">
+        <v>4</v>
+      </c>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
+      <c r="K357" s="20" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
